--- a/Miscellaneous/tests.xlsx
+++ b/Miscellaneous/tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB8CC9-A0AD-4181-A503-FCAEF4F56019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C532981-B50A-4553-A325-66E9C890E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="33">
   <si>
     <t>Base system</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Ignored CANBUS messages rate [message/sec]</t>
   </si>
   <si>
-    <t>Sync at every frame</t>
-  </si>
-  <si>
-    <t>no sync</t>
-  </si>
-  <si>
     <t>BMS</t>
   </si>
   <si>
@@ -138,6 +132,9 @@
   </si>
   <si>
     <t>Current test</t>
+  </si>
+  <si>
+    <t>Cache flush</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,9 +415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,19 +750,34 @@
     <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -805,8 +814,53 @@
       <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -843,8 +897,53 @@
       <c r="N5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -881,8 +980,53 @@
       <c r="N6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1">
+        <v>100</v>
+      </c>
+      <c r="T6" s="1">
+        <v>100</v>
+      </c>
+      <c r="U6" s="1">
+        <v>100</v>
+      </c>
+      <c r="V6" s="1">
+        <v>100</v>
+      </c>
+      <c r="X6" s="1">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>200</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>300</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>400</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -919,8 +1063,53 @@
       <c r="N7" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -957,10 +1146,55 @@
       <c r="N8" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1">
+        <v>800</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1600</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2200</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2800</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3400</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1600</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2200</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -987,16 +1221,74 @@
         <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1033,8 +1325,53 @@
       <c r="N11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1066,8 +1403,53 @@
       <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1">
+        <v>30</v>
+      </c>
+      <c r="S12" s="1">
+        <v>40</v>
+      </c>
+      <c r="T12" s="1">
+        <v>30</v>
+      </c>
+      <c r="U12" s="1">
+        <v>30</v>
+      </c>
+      <c r="V12" s="1">
+        <v>40</v>
+      </c>
+      <c r="X12" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1101,17 +1483,50 @@
       <c r="N13" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1148,8 +1563,53 @@
       <c r="N16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1186,146 +1646,189 @@
       <c r="N17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="12">
+        <v>5</v>
+      </c>
+      <c r="C27" s="13">
+        <f>1/B27*1000</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" ref="C28:C34" si="0">1/B28*1000</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="13">
-        <v>100</v>
-      </c>
-      <c r="C27" s="14">
-        <f>1/B27*1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="11">
-        <v>100</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" ref="C28:C34" si="0">1/B28*1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="11">
-        <v>100</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B33" s="10">
+        <v>5</v>
+      </c>
+      <c r="C33" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="11">
-        <v>100</v>
-      </c>
-      <c r="C30" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="17">
+        <v>5</v>
+      </c>
+      <c r="C34" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="11">
-        <v>20</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="11">
-        <v>10</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="11">
-        <v>10</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="18">
-        <v>100</v>
-      </c>
-      <c r="C34" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="22">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="21">
         <f>SUM(C27:C34)</f>
-        <v>300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="21">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="A38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="20">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="22">
         <f>1000/B38</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Miscellaneous/tests.xlsx
+++ b/Miscellaneous/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C532981-B50A-4553-A325-66E9C890E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73A321-651A-49C6-9E87-03288115F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base system" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
   <si>
     <t>Base system</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Cache flush</t>
+  </si>
+  <si>
+    <t>canbus rate</t>
+  </si>
+  <si>
+    <t>lograte</t>
+  </si>
+  <si>
+    <t>Update on base hardware</t>
+  </si>
+  <si>
+    <t>New hardware</t>
+  </si>
+  <si>
+    <t>New hardware/nofilter</t>
   </si>
 </sst>
 </file>
@@ -470,6 +485,3136 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$N$27:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$O$27:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9725-4DA2-9DE1-E9391876FBA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$K$27:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$L$27:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9725-4DA2-9DE1-E9391876FBA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$H$27:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$I$27:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9725-4DA2-9DE1-E9391876FBA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117103455"/>
+        <c:axId val="2117093327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2117103455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117093327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2117093327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117103455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$K$27:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$L$27:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A85E-495E-912F-C217A0EA0374}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$H$27:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$I$27:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A85E-495E-912F-C217A0EA0374}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117103455"/>
+        <c:axId val="2117093327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2117103455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117093327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2117093327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117103455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$N$27:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$O$27:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D988-469D-944B-435264551DCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$Q$27:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$R$27:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D988-469D-944B-435264551DCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2117103455"/>
+        <c:axId val="2117093327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2117103455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117093327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2117093327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117103455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>583199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657494</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C29F1B-50E7-BB9A-3449-4970464BC37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66C0B9-0F13-4782-9E14-6A2395AE90E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>55110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A750542-DC00-48CD-9F47-41C280EDB251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -735,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +3891,11 @@
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="18" width="13.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
@@ -1692,7 +4838,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R25"/>
+    </row>
     <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
@@ -1702,6 +4865,30 @@
       </c>
       <c r="C26" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -1715,6 +4902,30 @@
         <f>1/B27*1000</f>
         <v>200</v>
       </c>
+      <c r="H27" s="1">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1727,6 +4938,30 @@
         <f t="shared" ref="C28:C34" si="0">1/B28*1000</f>
         <v>200</v>
       </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>200</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>300</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>800</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1600</v>
+      </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -1739,6 +4974,30 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1">
+        <v>300</v>
+      </c>
+      <c r="K29" s="1">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1">
+        <v>500</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="1">
+        <v>2200</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>500</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2500</v>
+      </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -1751,6 +5010,30 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>350</v>
+      </c>
+      <c r="K30" s="1">
+        <v>20</v>
+      </c>
+      <c r="L30" s="1">
+        <v>700</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3400</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>200</v>
+      </c>
+      <c r="R30" s="1">
+        <v>2500</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -1763,6 +5046,30 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>400</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>800</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3400</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3000</v>
+      </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -1775,8 +5082,26 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>400</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>800</v>
+      </c>
+      <c r="N32" s="1">
+        <v>200</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>27</v>
       </c>
@@ -1787,8 +5112,14 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="N33" s="1">
+        <v>500</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>28</v>
       </c>
@@ -1799,12 +5130,18 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="N34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1813,12 +5150,13 @@
         <f>SUM(C27:C34)</f>
         <v>1600</v>
       </c>
+      <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>30</v>
       </c>
@@ -1830,8 +5168,10 @@
         <f>1000/B38</f>
         <v>1000</v>
       </c>
+      <c r="O38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Miscellaneous/tests.xlsx
+++ b/Miscellaneous/tests.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uadmin\Desktop\Telemetry-for-the-Formula-Student\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73A321-651A-49C6-9E87-03288115F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="30930" windowHeight="17490"/>
   </bookViews>
   <sheets>
     <sheet name="Base system" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
   <si>
     <t>Base system</t>
   </si>
@@ -95,45 +94,6 @@
     <t>Ignored CANBUS messages rate [message/sec]</t>
   </si>
   <si>
-    <t>BMS</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>Tire</t>
-  </si>
-  <si>
-    <t>LVS</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>F[message/second]</t>
-  </si>
-  <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>Tork</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Speedtest</t>
-  </si>
-  <si>
-    <t>Current test</t>
-  </si>
-  <si>
     <t>Cache flush</t>
   </si>
   <si>
@@ -143,20 +103,86 @@
     <t>lograte</t>
   </si>
   <si>
-    <t>Update on base hardware</t>
-  </si>
-  <si>
     <t>New hardware</t>
   </si>
   <si>
     <t>New hardware/nofilter</t>
   </si>
+  <si>
+    <t>Upgrade on base hardware</t>
+  </si>
+  <si>
+    <t>Test time</t>
+  </si>
+  <si>
+    <t>Failure criteria</t>
+  </si>
+  <si>
+    <t>can buffer overflow</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement </t>
+  </si>
+  <si>
+    <t>During Development Tests</t>
+  </si>
+  <si>
+    <t>Characterization Tests on latest system release</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can max message rate </t>
+  </si>
+  <si>
+    <t>3400 [message/sec]</t>
+  </si>
+  <si>
+    <t>log recording maximum rate</t>
+  </si>
+  <si>
+    <t>1000 [records / sec]</t>
+  </si>
+  <si>
+    <t>Base system tests</t>
+  </si>
+  <si>
+    <t>only messages destinated to the telemetry system</t>
+  </si>
+  <si>
+    <t>can bus is filled to 3400 msg/sec with other messages not destinated to the telemetry (not included in the measurements)</t>
+  </si>
+  <si>
+    <t>Upgrade on base system + new hardware tests + new hardware without filter</t>
+  </si>
+  <si>
+    <t>Limit of functionning with the highest rates</t>
+  </si>
+  <si>
+    <t>Number of sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS </t>
+  </si>
+  <si>
+    <t>active with fix</t>
+  </si>
+  <si>
+    <t>Number of different CAN messages destinated to the telemetry system</t>
+  </si>
+  <si>
+    <t>Number of different CAN messages not destinated to the telemetry system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +198,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -189,284 +223,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +268,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -499,145 +279,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11005910846510041"/>
+          <c:y val="4.7072725236618644E-2"/>
+          <c:w val="0.86094360156199989"/>
+          <c:h val="0.84150871173651631"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Base system'!$N$27:$N$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Base system'!$O$27:$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9725-4DA2-9DE1-E9391876FBA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:tx>
+            <c:v>Upgrades on the existing hardware</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -648,7 +311,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -719,13 +382,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9725-4DA2-9DE1-E9391876FBA2}"/>
+              <c16:uniqueId val="{00000001-A85E-495E-912F-C217A0EA0374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Existing System</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -807,7 +473,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9725-4DA2-9DE1-E9391876FBA2}"/>
+              <c16:uniqueId val="{00000002-A85E-495E-912F-C217A0EA0374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -843,6 +509,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> Recording rate [records/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36387660997881704"/>
+              <c:y val="0.9436384725885365"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -905,6 +639,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>CANBUS Message Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> [Messages/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3550135501355014E-2"/>
+              <c:y val="0.18407233422591734"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -954,8 +756,57 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65835292086061226"/>
+          <c:y val="2.9496960932341158E-2"/>
+          <c:w val="0.32212743816969525"/>
+          <c:h val="0.10344897494217277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -963,7 +814,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -971,10 +821,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1001,7 +848,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1012,45 +859,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11005910846510041"/>
+          <c:y val="4.7072725236618644E-2"/>
+          <c:w val="0.86094360156199989"/>
+          <c:h val="0.84150871173651631"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Upgrades on the existing hardware</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1061,7 +891,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1132,13 +962,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A85E-495E-912F-C217A0EA0374}"/>
+              <c16:uniqueId val="{00000000-C9DB-408E-BAD7-960D86FA8437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Existing System</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1220,7 +1053,110 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A85E-495E-912F-C217A0EA0374}"/>
+              <c16:uniqueId val="{00000001-C9DB-408E-BAD7-960D86FA8437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>New Hardware</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base system'!$N$27:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base system'!$O$27:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9DB-408E-BAD7-960D86FA8437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1256,6 +1192,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> Recording rate [records/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36387660997881704"/>
+              <c:y val="0.9436384725885365"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1318,6 +1322,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>CANBUS Message Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> [Messages/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3550135501355014E-2"/>
+              <c:y val="0.18407233422591734"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1367,8 +1439,57 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66236564750829918"/>
+          <c:y val="2.3366694212642054E-2"/>
+          <c:w val="0.32117314609762032"/>
+          <c:h val="0.13065239553446273"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1376,7 +1497,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1384,10 +1504,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1414,7 +1531,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1425,45 +1542,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11005910846510041"/>
+          <c:y val="4.7072725236618644E-2"/>
+          <c:w val="0.86094360156199989"/>
+          <c:h val="0.84150871173651631"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>New Hardware</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1490,10 +1590,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Base system'!$N$27:$N$38</c:f>
+              <c:f>'Base system'!$N$27:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1523,10 +1623,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Base system'!$O$27:$O$38</c:f>
+              <c:f>'Base system'!$O$27:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1557,43 +1657,35 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D988-469D-944B-435264551DCD}"/>
+              <c16:uniqueId val="{00000002-20E5-487E-8883-E839344AD0F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>New Hardware with no filter configured</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Base system'!$Q$27:$Q$39</c:f>
+              <c:f>'Base system'!$Q$27:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1614,10 +1706,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Base system'!$R$27:$R$39</c:f>
+              <c:f>'Base system'!$R$27:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1628,10 +1720,10 @@
                   <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1731,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D988-469D-944B-435264551DCD}"/>
+              <c16:uniqueId val="{00000003-20E5-487E-8883-E839344AD0F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1675,6 +1767,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> Recording rate [records/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36387660997881704"/>
+              <c:y val="0.9436384725885365"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1737,6 +1897,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>CANBUS Message Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> [Messages/second]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3550135501355014E-2"/>
+              <c:y val="0.18407233422591734"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1786,8 +2014,57 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61440143426340754"/>
+          <c:y val="3.2562094292190716E-2"/>
+          <c:w val="0.3710444010620047"/>
+          <c:h val="8.7357748850212968E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1795,7 +2072,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1803,10 +2079,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3502,27 +3775,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>583199</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249307</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657494</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133215</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>841513</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C29F1B-50E7-BB9A-3449-4970464BC37E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66C0B9-0F13-4782-9E14-6A2395AE90E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3538,20 +3813,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1017130</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19885</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292693</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>98442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="5" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66C0B9-0F13-4782-9E14-6A2395AE90E0}"/>
@@ -3576,23 +3851,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>81915</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>55110</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247410</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="6" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A750542-DC00-48CD-9F47-41C280EDB251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B66C0B9-0F13-4782-9E14-6A2395AE90E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,14 +4152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
@@ -3914,529 +4189,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>100</v>
-      </c>
-      <c r="R6" s="1">
-        <v>100</v>
-      </c>
-      <c r="S6" s="1">
-        <v>100</v>
-      </c>
-      <c r="T6" s="1">
-        <v>100</v>
-      </c>
-      <c r="U6" s="1">
-        <v>100</v>
-      </c>
-      <c r="V6" s="1">
-        <v>100</v>
-      </c>
-      <c r="X6" s="1">
-        <v>200</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>200</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>200</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>300</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>400</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>600</v>
-      </c>
-      <c r="J7" s="1">
-        <v>600</v>
-      </c>
-      <c r="L7" s="1">
-        <v>600</v>
-      </c>
-      <c r="M7" s="1">
-        <v>600</v>
-      </c>
-      <c r="N7" s="1">
-        <v>600</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>2000</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>100</v>
+      </c>
+      <c r="R8" s="1">
+        <v>100</v>
+      </c>
+      <c r="S8" s="1">
+        <v>100</v>
+      </c>
+      <c r="T8" s="1">
+        <v>100</v>
+      </c>
+      <c r="U8" s="1">
+        <v>100</v>
+      </c>
+      <c r="V8" s="1">
+        <v>100</v>
+      </c>
+      <c r="X8" s="1">
         <v>200</v>
       </c>
-      <c r="C8" s="1">
+      <c r="Y8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="1">
+      <c r="Z8" s="1">
         <v>200</v>
       </c>
-      <c r="E8" s="1">
+      <c r="AA8" s="1">
         <v>200</v>
       </c>
-      <c r="F8" s="1">
+      <c r="AC8" s="1">
         <v>300</v>
       </c>
-      <c r="G8" s="1">
-        <v>300</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1">
-        <v>100</v>
-      </c>
-      <c r="L8" s="1">
-        <v>100</v>
-      </c>
-      <c r="M8" s="1">
-        <v>200</v>
-      </c>
-      <c r="N8" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>800</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="T8" s="1">
-        <v>2200</v>
-      </c>
-      <c r="U8" s="1">
-        <v>2800</v>
-      </c>
-      <c r="V8" s="1">
-        <v>3400</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>2200</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>2800</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>3400</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>3400</v>
-      </c>
       <c r="AE8" s="1">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="AG8" s="1">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>600</v>
+      </c>
+      <c r="J9" s="1">
+        <v>600</v>
+      </c>
+      <c r="L9" s="1">
+        <v>600</v>
+      </c>
+      <c r="M9" s="1">
+        <v>600</v>
+      </c>
+      <c r="N9" s="1">
+        <v>600</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>300</v>
+      </c>
+      <c r="G10" s="1">
+        <v>300</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>200</v>
+      </c>
+      <c r="N10" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>800</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2200</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2800</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2200</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1600</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -4454,212 +4636,277 @@
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1">
-        <v>80</v>
-      </c>
-      <c r="M12" s="1">
-        <v>60</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>30</v>
-      </c>
-      <c r="R12" s="1">
-        <v>30</v>
-      </c>
-      <c r="S12" s="1">
-        <v>40</v>
-      </c>
-      <c r="T12" s="1">
-        <v>30</v>
-      </c>
-      <c r="U12" s="1">
-        <v>30</v>
-      </c>
-      <c r="V12" s="1">
-        <v>40</v>
-      </c>
-      <c r="X12" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>30</v>
-      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>35</v>
-      </c>
-      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="1">
-        <v>7</v>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1">
-        <v>28</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
+      <c r="L14" s="1">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1">
+        <v>60</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>30</v>
+      </c>
+      <c r="R14" s="1">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1">
+        <v>40</v>
+      </c>
+      <c r="T14" s="1">
+        <v>30</v>
+      </c>
+      <c r="U14" s="1">
+        <v>30</v>
+      </c>
+      <c r="V14" s="1">
+        <v>40</v>
+      </c>
+      <c r="X14" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1">
+        <v>28</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="X15" s="1"/>
@@ -4673,235 +4920,279 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="J16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>7</v>
+      <c r="Q19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>35</v>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="13">
-        <f>1/B27*1000</f>
-        <v>200</v>
-      </c>
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="H27" s="1">
         <v>50</v>
       </c>
@@ -4928,16 +5219,14 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="10">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15">
-        <f t="shared" ref="C28:C34" si="0">1/B28*1000</f>
-        <v>200</v>
-      </c>
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="H28" s="1">
         <v>50</v>
       </c>
@@ -4964,16 +5253,14 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7">
         <v>22</v>
       </c>
-      <c r="B29" s="10">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="H29" s="1">
         <v>20</v>
       </c>
@@ -5000,16 +5287,14 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="10">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="H30" s="1">
         <v>10</v>
       </c>
@@ -5032,20 +5317,18 @@
         <v>200</v>
       </c>
       <c r="R30" s="1">
-        <v>2500</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="10">
-        <v>5</v>
-      </c>
-      <c r="C31" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="H31" s="1">
         <v>5</v>
       </c>
@@ -5068,20 +5351,18 @@
         <v>1</v>
       </c>
       <c r="R31" s="1">
-        <v>3000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="10">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
@@ -5102,16 +5383,14 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="10">
-        <v>5</v>
-      </c>
-      <c r="C33" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="N33" s="1">
         <v>500</v>
       </c>
@@ -5119,17 +5398,13 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="17">
-        <v>5</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="N34" s="1">
         <v>1000</v>
       </c>
@@ -5137,41 +5412,57 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="21">
-        <f>SUM(C27:C34)</f>
-        <v>1600</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="20">
-        <f>5/5</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="22">
-        <f>1000/B38</f>
-        <v>1000</v>
-      </c>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Miscellaneous/tests.xlsx
+++ b/Miscellaneous/tests.xlsx
@@ -1711,16 +1711,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2800</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3400</c:v>
@@ -4155,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,7 +5215,7 @@
         <v>1000</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -5249,7 +5249,7 @@
         <v>800</v>
       </c>
       <c r="R28" s="1">
-        <v>1600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -5283,7 +5283,7 @@
         <v>500</v>
       </c>
       <c r="R29" s="1">
-        <v>2500</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>200</v>
       </c>
       <c r="R30" s="1">
-        <v>2800</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
